--- a/data/cost_feathers_with_size.xlsx
+++ b/data/cost_feathers_with_size.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\InventoryPC-1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\InventoryPC-1\Desktop\dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C69467-0D67-4606-A55C-E73FEEB5E21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF420E10-B370-49B8-AAF4-08240EF2D2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="92">
   <si>
     <t>Ref</t>
   </si>
@@ -296,6 +307,9 @@
   </si>
   <si>
     <t>GNA80483</t>
+  </si>
+  <si>
+    <t>GNA80496</t>
   </si>
 </sst>
 </file>
@@ -673,16 +687,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F392"/>
+  <dimension ref="A1:F400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A364" workbookViewId="0">
-      <selection activeCell="A393" sqref="A393"/>
+    <sheetView tabSelected="1" topLeftCell="A367" workbookViewId="0">
+      <selection activeCell="F400" sqref="F400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -8523,6 +8537,166 @@
       </c>
       <c r="F392" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>91</v>
+      </c>
+      <c r="B393" s="3">
+        <v>45925</v>
+      </c>
+      <c r="C393">
+        <v>15</v>
+      </c>
+      <c r="D393">
+        <v>92</v>
+      </c>
+      <c r="E393">
+        <v>1380</v>
+      </c>
+      <c r="F393" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>91</v>
+      </c>
+      <c r="B394" s="3">
+        <v>45925</v>
+      </c>
+      <c r="C394">
+        <v>15</v>
+      </c>
+      <c r="D394">
+        <v>215</v>
+      </c>
+      <c r="E394">
+        <v>3225</v>
+      </c>
+      <c r="F394" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>91</v>
+      </c>
+      <c r="B395" s="3">
+        <v>45925</v>
+      </c>
+      <c r="C395">
+        <v>50</v>
+      </c>
+      <c r="D395">
+        <v>114</v>
+      </c>
+      <c r="E395">
+        <v>5700</v>
+      </c>
+      <c r="F395" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>91</v>
+      </c>
+      <c r="B396" s="3">
+        <v>45925</v>
+      </c>
+      <c r="C396">
+        <v>45</v>
+      </c>
+      <c r="D396">
+        <v>132</v>
+      </c>
+      <c r="E396">
+        <v>5940</v>
+      </c>
+      <c r="F396" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>91</v>
+      </c>
+      <c r="B397" s="3">
+        <v>45925</v>
+      </c>
+      <c r="C397">
+        <v>60</v>
+      </c>
+      <c r="D397">
+        <v>161</v>
+      </c>
+      <c r="E397">
+        <v>9660</v>
+      </c>
+      <c r="F397" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>91</v>
+      </c>
+      <c r="B398" s="3">
+        <v>45925</v>
+      </c>
+      <c r="C398">
+        <v>45</v>
+      </c>
+      <c r="D398">
+        <v>198</v>
+      </c>
+      <c r="E398">
+        <v>8910</v>
+      </c>
+      <c r="F398" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>91</v>
+      </c>
+      <c r="B399" s="3">
+        <v>45925</v>
+      </c>
+      <c r="C399">
+        <v>10</v>
+      </c>
+      <c r="D399">
+        <v>241</v>
+      </c>
+      <c r="E399">
+        <v>2410</v>
+      </c>
+      <c r="F399" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>91</v>
+      </c>
+      <c r="B400" s="3">
+        <v>45925</v>
+      </c>
+      <c r="C400">
+        <v>30</v>
+      </c>
+      <c r="D400">
+        <v>93</v>
+      </c>
+      <c r="E400">
+        <v>2790</v>
+      </c>
+      <c r="F400" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
